--- a/Sprint 1/Package 1/Documentation/P01_JE_02_Classification.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_02_Classification.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Gab_Cegep5\Sem2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="tblClassification" sheetId="1" r:id="rId1"/>
+    <sheet name="tblGenre" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>CoteESRB</t>
   </si>
@@ -88,13 +83,136 @@
   </si>
   <si>
     <t>Adultes de 18 ans et plus seulement</t>
+  </si>
+  <si>
+    <t>IdGenre</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>CommentaireGenre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course </t>
+  </si>
+  <si>
+    <t>Action Combat</t>
+  </si>
+  <si>
+    <t>Action Beat them all</t>
+  </si>
+  <si>
+    <t>Action Plates-formes</t>
+  </si>
+  <si>
+    <t>Action Tir</t>
+  </si>
+  <si>
+    <t>Action Tir en vue subjective</t>
+  </si>
+  <si>
+    <t>Action Shoot them up</t>
+  </si>
+  <si>
+    <t>Action Rail Shooter</t>
+  </si>
+  <si>
+    <t>Action Tir en vue objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventure </t>
+  </si>
+  <si>
+    <t>Aventure Fiction interactive</t>
+  </si>
+  <si>
+    <t>Aventure graphique</t>
+  </si>
+  <si>
+    <t>Aventure Simulation de drague</t>
+  </si>
+  <si>
+    <t>Aventure Visuel novel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action-Aventure </t>
+  </si>
+  <si>
+    <t>Action-Aventure Infiltration</t>
+  </si>
+  <si>
+    <t>Action-Aventure Survival horror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPG </t>
+  </si>
+  <si>
+    <t>RPG d'action</t>
+  </si>
+  <si>
+    <t>RPG Hack'n'slash</t>
+  </si>
+  <si>
+    <t>RPG Rogue-like</t>
+  </si>
+  <si>
+    <t>MMORPG</t>
+  </si>
+  <si>
+    <t>RPG tactique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réflexion </t>
+  </si>
+  <si>
+    <t>Réflexion Labyrinthe</t>
+  </si>
+  <si>
+    <t>Réflexion Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation </t>
+  </si>
+  <si>
+    <t>Simulation Gestion</t>
+  </si>
+  <si>
+    <t>Simulation God Game</t>
+  </si>
+  <si>
+    <t>Simulation de véhicule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stratégie </t>
+  </si>
+  <si>
+    <t>Stratégie au tour par tour</t>
+  </si>
+  <si>
+    <t>Stratégie en temps réel</t>
+  </si>
+  <si>
+    <t>Stratégie Grande stratégie</t>
+  </si>
+  <si>
+    <t>Stratégie 4X</t>
+  </si>
+  <si>
+    <t>Stratégie Wargame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rythme </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +220,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,15 +250,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vérification" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,7 +557,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,12 +651,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="64.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>